--- a/Ayudantia Economia/Asinaciones finales de temas.xlsx
+++ b/Ayudantia Economia/Asinaciones finales de temas.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="460" windowWidth="26020" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="1120" yWindow="460" windowWidth="26200" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Asignaciones finales" sheetId="1" r:id="rId1"/>
+    <sheet name="Horarios grupos" sheetId="2" r:id="rId2"/>
+    <sheet name="Asistencia reuniones" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="53">
   <si>
     <t>Temas</t>
   </si>
@@ -59,14 +61,143 @@
     <t>Moneda única para Latinoamérica</t>
   </si>
   <si>
-    <t>Grupos</t>
+    <t>Grupos y reuniones</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Martes 16</t>
+  </si>
+  <si>
+    <t>Miercoles 17</t>
+  </si>
+  <si>
+    <t>Jueves 18</t>
+  </si>
+  <si>
+    <t>Viernes 19</t>
+  </si>
+  <si>
+    <t>Lunes 22</t>
+  </si>
+  <si>
+    <t>9:30 – 10:00</t>
+  </si>
+  <si>
+    <t>14:00 – 14:30</t>
+  </si>
+  <si>
+    <t>14:30 – 15:00</t>
+  </si>
+  <si>
+    <t>9:00 – 9:30</t>
+  </si>
+  <si>
+    <t>11:00 – 11:30</t>
+  </si>
+  <si>
+    <t>11:30 – 12:00</t>
+  </si>
+  <si>
+    <t>12:00 – 12:30</t>
+  </si>
+  <si>
+    <t>12:30 – 13:00</t>
+  </si>
+  <si>
+    <t>Grupo 22</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Grupo 16</t>
+  </si>
+  <si>
+    <t>Grupo 25</t>
+  </si>
+  <si>
+    <t>Grupo 17</t>
+  </si>
+  <si>
+    <t>Grupo 20</t>
+  </si>
+  <si>
+    <t>Grupo 19</t>
+  </si>
+  <si>
+    <t>Grupo 15</t>
+  </si>
+  <si>
+    <t>Grupo 28</t>
+  </si>
+  <si>
+    <t>Grupo 29</t>
+  </si>
+  <si>
+    <t>Grupo 30</t>
+  </si>
+  <si>
+    <t>Grupo 27</t>
+  </si>
+  <si>
+    <t>Grupo 24</t>
+  </si>
+  <si>
+    <t>Grupo 21</t>
+  </si>
+  <si>
+    <t>Grupo 23</t>
+  </si>
+  <si>
+    <t>9:00 - 9:30</t>
+  </si>
+  <si>
+    <t>LISTO</t>
+  </si>
+  <si>
+    <t>9:30 - 10:00</t>
+  </si>
+  <si>
+    <t>10:00 - 10:30</t>
+  </si>
+  <si>
+    <t>10:30 - 11:00</t>
+  </si>
+  <si>
+    <t>11:00 - 11:30</t>
+  </si>
+  <si>
+    <t>11:30 - 12:00</t>
+  </si>
+  <si>
+    <t>12:00 - 12:30</t>
+  </si>
+  <si>
+    <t>12:30 - 13:00</t>
+  </si>
+  <si>
+    <t>13:00 - 13:30</t>
+  </si>
+  <si>
+    <t>13:30 - 14:00</t>
+  </si>
+  <si>
+    <t>14:00 - 14:30</t>
+  </si>
+  <si>
+    <t>14:30 - 15:00</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,18 +209,40 @@
       <b/>
       <sz val="24"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,8 +261,44 @@
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -212,56 +401,731 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -534,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E11"/>
+  <dimension ref="A2:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,127 +1409,177 @@
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="C2" s="50"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+    </row>
+    <row r="4" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12">
+      <c r="C4" s="48"/>
+      <c r="D4" s="2">
         <v>22</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7" t="s">
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12">
+      <c r="C5" s="48"/>
+      <c r="D5" s="2">
         <v>21</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12">
+      <c r="C6" s="48"/>
+      <c r="D6" s="2">
         <v>27</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7" t="s">
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12">
+      <c r="C7" s="48"/>
+      <c r="D7" s="2">
         <v>26</v>
       </c>
-      <c r="E7" s="13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4" t="s">
+      <c r="E7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="3">
+        <v>25</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12">
+      <c r="C8" s="48"/>
+      <c r="D8" s="2">
         <v>20</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4" t="s">
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12">
+      <c r="C9" s="48"/>
+      <c r="D9" s="2">
         <v>18</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4" t="s">
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12">
+      <c r="C10" s="48"/>
+      <c r="D10" s="2">
         <v>28</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4" t="s">
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12">
+      <c r="C11" s="48"/>
+      <c r="D11" s="2">
         <v>17</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3">
         <v>16</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D3:G3"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
@@ -676,6 +1590,1136 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
   </mergeCells>
+  <conditionalFormatting sqref="G4:G11 E4:E11">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:G11">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:S20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
+    <col min="18" max="19" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1" s="4"/>
+    </row>
+    <row r="4" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C5" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="57"/>
+      <c r="N5" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="60"/>
+      <c r="P5" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="62"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B13" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B16" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S16" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B17" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B18" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S18" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B19" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S19" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="R20" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="S20" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C4:S4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:S5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G14"/>
+  <sheetViews>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="40"/>
+    </row>
+    <row r="4" spans="2:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="2:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="2:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="2:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="2:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="2:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="2:7" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="2:7" s="37" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C3:G14">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"LISTO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>